--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>958.9634582229119</v>
+        <v>44820.46073051062</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484441</v>
+        <v>492028.934248445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8562349.132805208</v>
+        <v>8581288.52811059</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>70.47946385373672</v>
+        <v>250.9580093873356</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -817,22 +817,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>42.59920215195948</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>11.47170911161302</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -896,25 +896,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>237.2177930475864</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>213.9524923143556</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5.564299966131935</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1105,7 +1105,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>199.3487361229525</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>209.9048653462158</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>25.67485072351182</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1348,13 +1348,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>2.656640259337414</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>81.01098805494614</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>381.8187305775005</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>129.7853418074789</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
-        <v>103.8284742946029</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>18.64034175572404</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>206.485501777224</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>45.76594660771036</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>154.0254420454378</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>33.08339867820246</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2014,10 +2014,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361697</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,10 +2062,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>125.1716544454846</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>163.9521757218101</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>101.0430753545968</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313668</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2476,13 +2476,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>56.95997704284483</v>
       </c>
       <c r="E25" t="n">
-        <v>28.46824604904421</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>193.865943825374</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2962,10 +2962,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170484</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225763</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3278,13 +3278,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>24.34318456170499</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225831</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3515,7 +3515,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629696</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>27.97358346682203</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225763</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3727,7 +3727,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225768</v>
+        <v>18.05677735225814</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791322673</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>163.6395778340024</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>888.1040799405455</v>
+        <v>1487.38387778377</v>
       </c>
       <c r="C2" t="n">
-        <v>854.0020111643728</v>
+        <v>1453.281809007597</v>
       </c>
       <c r="D2" t="n">
-        <v>822.1326303792214</v>
+        <v>1421.412428222445</v>
       </c>
       <c r="E2" t="n">
-        <v>750.9412527491843</v>
+        <v>1167.919489447359</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>740.0520598565668</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>338.6542284798306</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304689</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031048</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>484.3619720031048</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311668</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489131</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489131</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1132.008730489131</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797693</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756288</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693182</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.64512656622</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1892.422823883237</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1529.805873817064</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>1528.990823268501</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449918</v>
+        <v>1513.888763888216</v>
       </c>
       <c r="Y2" t="n">
-        <v>910.3632463850493</v>
+        <v>1509.643044228273</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.822568378122</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397443</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.1709577106445</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768568</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768568</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768568</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768568</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768568</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940176</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.97316572479974</v>
+        <v>1039.505495936744</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>866.9437844199684</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>701.0657916214911</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>531.3077878722285</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>354.6007338339847</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>189.0094588598124</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.1072845501869</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>200.0427573423708</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>618.2526391103319</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>1077.736506291245</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>1519.995309448889</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1939.664558674671</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645013</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509345</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214717</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2274.705037512713</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2263.117452551488</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>2263.117452551488</v>
       </c>
       <c r="V4" t="n">
-        <v>1013.629614209975</v>
+        <v>1976.161944421918</v>
       </c>
       <c r="W4" t="n">
-        <v>741.6032097962661</v>
+        <v>1704.13554000821</v>
       </c>
       <c r="X4" t="n">
-        <v>496.2114551296786</v>
+        <v>1458.743785341622</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.7917844437869</v>
+        <v>1231.324114655731</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.9883481097481</v>
+        <v>1052.900668210748</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1018.798599434575</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>986.9292186494238</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.716505715692</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>1193.574042295003</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y5" t="n">
-        <v>785.2879185946559</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>433.7175721270257</v>
+        <v>785.9943193530034</v>
       </c>
       <c r="C7" t="n">
-        <v>433.7175721270257</v>
+        <v>613.4326078362284</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7175721270257</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E7" t="n">
-        <v>433.7175721270257</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2288.039276714643</v>
       </c>
       <c r="U7" t="n">
-        <v>1238.091239336891</v>
+        <v>2009.606275967748</v>
       </c>
       <c r="V7" t="n">
-        <v>951.1357312073217</v>
+        <v>1722.650767838178</v>
       </c>
       <c r="W7" t="n">
-        <v>679.1093267936133</v>
+        <v>1450.62436342447</v>
       </c>
       <c r="X7" t="n">
-        <v>433.7175721270257</v>
+        <v>1205.232608757882</v>
       </c>
       <c r="Y7" t="n">
-        <v>433.7175721270257</v>
+        <v>977.8129380719906</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1770.240584242334</v>
+        <v>1964.376123674746</v>
       </c>
       <c r="C8" t="n">
-        <v>1736.138515466162</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>1300.228730640606</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>866.4539857989012</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>438.5865562081089</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>37.1887248313728</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>37.1887248313728</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851281</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105266</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105266</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105266</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105266</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O8" t="n">
-        <v>927.0793242105266</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873487</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172583</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.59677292564</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.59677292564</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.59677292564</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1812.662580275628</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1812.662580275628</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W8" t="n">
-        <v>1811.847529727066</v>
+        <v>2410.023473199882</v>
       </c>
       <c r="X8" t="n">
-        <v>1796.745470346781</v>
+        <v>2394.921413819597</v>
       </c>
       <c r="Y8" t="n">
-        <v>1792.499750686838</v>
+        <v>2390.675694159654</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230034</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851281</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.8356086189704</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842786</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543886</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>939.1230420321504</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>766.5613305153753</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>600.683337716898</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>430.9253339676353</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676353</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934629</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838375</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851281</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851281</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851281</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264738</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255698</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.293321683214</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1771.962570908996</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.59677292564</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.59677292564</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631012</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929009</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507464</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1133.625135760569</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1130.941660751138</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1130.941660751138</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1130.941660751138</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y10" t="n">
-        <v>1130.941660751138</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168568</v>
+        <v>2472.724095295528</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2034.581622478951</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526436</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
-        <v>944.829865684731</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939388</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429652</v>
+        <v>4493.924657556611</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363478</v>
+        <v>4131.307707490438</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774512</v>
+        <v>3726.452252901471</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3307.309789480782</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653476</v>
+        <v>2899.023665780435</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
         <v>608.792309442794</v>
@@ -5188,25 +5188,25 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,13 +5224,13 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V13" t="n">
         <v>1883.888462243221</v>
@@ -5242,7 +5242,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526433</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847282</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>516.962436093936</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047171999</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5285,43 +5285,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693463</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693463</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263769</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097165</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T14" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580466</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412715</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427942</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935315</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552877</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111519</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1222.022366189674</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5525,40 +5525,40 @@
         <v>1366.340956092211</v>
       </c>
       <c r="N17" t="n">
-        <v>2492.071939528658</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O17" t="n">
-        <v>3472.251606098964</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P17" t="n">
-        <v>4300.561480932361</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112635</v>
+        <v>4803.381259633331</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429652</v>
+        <v>4544.158956950348</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363478</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774512</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.544088874518</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653476</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>965.4711828007311</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776222</v>
+        <v>792.909471283956</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777443</v>
+        <v>627.0314784854786</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284815</v>
+        <v>457.2734747362159</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>280.5664206979721</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.736396587283</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T19" t="n">
-        <v>2286.856950165738</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U19" t="n">
-        <v>2008.423949418844</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V19" t="n">
-        <v>1721.468441289274</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W19" t="n">
-        <v>1721.468441289274</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.032426697876</v>
+        <v>1384.70947220561</v>
       </c>
       <c r="Y19" t="n">
-        <v>1367.612756011984</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2336.308741984731</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>1898.166269168154</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D20" t="n">
-        <v>1462.256484342599</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1028.481739500894</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>600.614309910102</v>
+        <v>787.2639626146347</v>
       </c>
       <c r="G20" t="n">
-        <v>199.2164785333658</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>3598.448757555621</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>4724.179740992068</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O20" t="n">
-        <v>4724.179740992068</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P20" t="n">
-        <v>4724.179740992068</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q20" t="n">
-        <v>4724.179740992068</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4616.731606928798</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4357.509304245815</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>3994.892354179641</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3590.036899590675</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3170.894436169986</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2762.608312469639</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580465</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412714</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7923094427941</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
         <v>439.0343056935313</v>
@@ -5899,16 +5899,16 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5941,7 +5941,7 @@
         <v>2449.276971119685</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.843970372791</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V22" t="n">
         <v>1883.888462243221</v>
@@ -5953,7 +5953,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6124,19 +6124,19 @@
         <v>811.7546776883918</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716167</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731394</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883919</v>
+        <v>970.9960463903953</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716168</v>
+        <v>798.4343348736203</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731395</v>
+        <v>632.556342075143</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238768</v>
+        <v>462.7983383258802</v>
       </c>
       <c r="F31" t="n">
-        <v>126.849915585633</v>
+        <v>286.0912842876364</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134641</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,19 +6707,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716171</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731397</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>303.556969623877</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856331</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>126.8499155856331</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835213</v>
@@ -7160,10 +7160,10 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771604</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,7 +7181,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7333,7 +7333,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1209.575145798643</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7418,7 +7418,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423628</v>
@@ -7436,10 +7436,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
         <v>4550.100609912873</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477115</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309365</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324589</v>
       </c>
       <c r="E43" t="n">
         <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
         <v>102.2608402707796</v>
@@ -7600,19 +7600,19 @@
         <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2176.368833962456</v>
       </c>
       <c r="V43" t="n">
         <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X43" t="n">
         <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1144.575496066699</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651791</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009659</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167954</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771616</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.807784200425</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.677629643641</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7655,7 +7655,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423628</v>
@@ -7676,22 +7676,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405614</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7804,13 +7804,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
@@ -7831,25 +7831,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832885</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773361</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>40.34758805804358</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773361</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854623</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773362</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.4600735274585</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.64919323141</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,19 +8462,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706676</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314102</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314101</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662698</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314102</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.64919323141</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428774</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8708,7 +8708,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>421.9740460140683</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>1126.736919799243</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,7 +9182,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>541.6538920438379</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9407,22 +9407,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>113.7566596602946</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>866.2895820207509</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10367,10 +10367,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>49.7319563997994</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>267.5985112554898</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.5985112554919</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>11.3810530784677</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>268.0111327346208</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>184.7831561774893</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>69.71657238081363</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>117.766182674437</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>267.5985112554898</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>185.1957776566191</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>107.2592358276477</v>
       </c>
       <c r="E25" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>81.78272691405169</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>114.1599680048242</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>161.9268490649752</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627256</v>
+        <v>139.5921776627252</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>742195.321638105</v>
+        <v>748026.8807291174</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>742195.321638105</v>
+        <v>749678.2228727054</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>743283.0045072254</v>
+        <v>749678.2228727054</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>721141.3683202018</v>
+        <v>721141.3683202016</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>721141.368320202</v>
+        <v>721141.3683202015</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>721141.368320202</v>
+        <v>721141.3683202016</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>721141.368320202</v>
+        <v>721141.3683202018</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751574.3581245558</v>
+        <v>751574.3581245556</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214458.9279561634</v>
+        <v>214458.9279561635</v>
       </c>
       <c r="C2" t="n">
         <v>214458.9279561634</v>
@@ -26320,13 +26320,13 @@
         <v>214458.9279561634</v>
       </c>
       <c r="E2" t="n">
-        <v>202209.5591886706</v>
+        <v>202209.5591886705</v>
       </c>
       <c r="F2" t="n">
-        <v>202209.5591886706</v>
+        <v>202209.5591886705</v>
       </c>
       <c r="G2" t="n">
-        <v>202209.5591886706</v>
+        <v>202209.5591886705</v>
       </c>
       <c r="H2" t="n">
         <v>202209.5591886706</v>
@@ -26350,10 +26350,10 @@
         <v>210743.0336549409</v>
       </c>
       <c r="O2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
       <c r="P2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039035</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390606</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200291</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520272</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283946</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856138</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784466</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510086</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104675</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>150016.3828485734</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>180561.1778449368</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
+        <v>39457.78817960742</v>
+      </c>
+      <c r="F4" t="n">
+        <v>39457.78817960742</v>
+      </c>
+      <c r="G4" t="n">
         <v>39457.78817960744</v>
-      </c>
-      <c r="F4" t="n">
-        <v>39457.78817960744</v>
-      </c>
-      <c r="G4" t="n">
-        <v>39457.78817960745</v>
       </c>
       <c r="H4" t="n">
         <v>39457.78817960744</v>
@@ -26445,13 +26445,13 @@
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991275</v>
+        <v>41122.95192991266</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991268</v>
       </c>
       <c r="O4" t="n">
         <v>41122.95192991272</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814204</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846973</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,7 +26500,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-174721.6938965821</v>
+        <v>-212218.8476544555</v>
       </c>
       <c r="C6" t="n">
-        <v>-32530.39323687215</v>
+        <v>-16477.88821840483</v>
       </c>
       <c r="D6" t="n">
-        <v>-38658.32750924604</v>
+        <v>862.6561555011576</v>
       </c>
       <c r="E6" t="n">
-        <v>-134566.8650206116</v>
+        <v>-72579.20503349554</v>
       </c>
       <c r="F6" t="n">
-        <v>89232.42873141565</v>
+        <v>89155.87017661873</v>
       </c>
       <c r="G6" t="n">
-        <v>89232.42873141558</v>
+        <v>89155.87017661876</v>
       </c>
       <c r="H6" t="n">
-        <v>89232.42873141564</v>
+        <v>89155.87017661882</v>
       </c>
       <c r="I6" t="n">
-        <v>73537.12748639629</v>
+        <v>73513.90314701354</v>
       </c>
       <c r="J6" t="n">
-        <v>-19112.62222575447</v>
+        <v>-68729.21070576068</v>
       </c>
       <c r="K6" t="n">
-        <v>91901.84311923572</v>
+        <v>78064.61021200844</v>
       </c>
       <c r="L6" t="n">
-        <v>82954.23203072563</v>
+        <v>91878.61877985307</v>
       </c>
       <c r="M6" t="n">
-        <v>-94889.14349123178</v>
+        <v>-43111.32583315021</v>
       </c>
       <c r="N6" t="n">
-        <v>91901.84311923568</v>
+        <v>91878.6187798531</v>
       </c>
       <c r="O6" t="n">
-        <v>91901.84311923565</v>
+        <v>91878.6187798531</v>
       </c>
       <c r="P6" t="n">
-        <v>91901.84311923568</v>
+        <v>91878.6187798531</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773362</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314101</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="H4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773362</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052075</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130576</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825298</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080547</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773362</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052075</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130576</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825295</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773362</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052075</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130576</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825298</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>358.957533539551</v>
+        <v>178.4789880059521</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>128.2368922496478</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.9489428457163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>196.5432550408245</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>215.4845050789321</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>169.3756835317294</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>223.8561827421951</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>230.9552289326415</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>281.4293127889364</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>161.9268490649755</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773361</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>40.34758805804358</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773361</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34775,13 +34775,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854623</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773362</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.4600735274585</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.64919323141</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,19 +35182,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706676</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314102</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,19 +35246,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314101</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662698</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314102</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.64919323141</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428774</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>421.9740460140683</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>1126.736919799243</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>541.6538920438379</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,22 +36127,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>113.7566596602946</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36771,7 +36771,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>866.2895820207509</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37087,10 +37087,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37476,13 +37476,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37704,7 +37704,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37950,13 +37950,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>
